--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -181,15 +181,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -199,16 +205,140 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -218,17 +348,53 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -248,6 +414,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -399,9 +566,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -481,7 +648,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -509,10 +676,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -768,9 +935,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1058,7 +1225,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1086,10 +1253,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1340,213 +1507,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:AG3"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.28125" style="1" customWidth="1"/>
-    <col min="2" max="33" width="8.85156" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="32" width="8.85156" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.6" customHeight="1"/>
+    <row r="1" ht="37.6" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="4"/>
+    </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="B2" t="s" s="2">
+      <c r="A2" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="B2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="C2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="D2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="E2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="F2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="G2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="H2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="I2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="J2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="K2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="L2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="N2" t="s" s="2">
+      <c r="M2" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="O2" t="s" s="2">
+      <c r="N2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="O2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="P2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="Q2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="S2" t="s" s="2">
+      <c r="R2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="S2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="U2" t="s" s="2">
+      <c r="T2" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="V2" t="s" s="2">
+      <c r="U2" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="W2" t="s" s="2">
+      <c r="V2" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="X2" t="s" s="2">
+      <c r="W2" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="Y2" t="s" s="2">
+      <c r="X2" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="Z2" t="s" s="2">
+      <c r="Y2" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="AA2" t="s" s="2">
+      <c r="Z2" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="AB2" t="s" s="2">
+      <c r="AA2" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="AC2" t="s" s="2">
+      <c r="AB2" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="AD2" t="s" s="2">
+      <c r="AC2" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="AE2" t="s" s="2">
+      <c r="AD2" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="AF2" t="s" s="2">
+      <c r="AE2" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AF2" t="s" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="B3" t="s" s="2">
+      <c r="A3" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="B3" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="D3" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="E3" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="F3" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="G3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="H3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="I3" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="J3" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="K3" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="L3" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="N3" t="s" s="2">
+      <c r="M3" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="O3" t="s" s="2">
+      <c r="N3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="O3" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="Q3" t="s" s="2">
+      <c r="P3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="R3" t="s" s="2">
+      <c r="Q3" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="S3" t="s" s="2">
+      <c r="R3" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="T3" t="s" s="2">
+      <c r="S3" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="U3" t="s" s="2">
+      <c r="T3" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="V3" s="3">
+      <c r="U3" s="6">
         <v>1111</v>
       </c>
-      <c r="W3" s="3">
+      <c r="V3" s="6">
         <v>111</v>
       </c>
-      <c r="X3" t="s" s="2">
+      <c r="W3" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="Y3" t="s" s="2">
+      <c r="X3" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Y3" s="6">
         <v>10</v>
       </c>
-      <c r="AA3" t="s" s="2">
+      <c r="Z3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AB3" t="s" s="2">
+      <c r="AA3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AB3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AD3" t="s" s="2">
+      <c r="AC3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AD3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AE3" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="AG3" t="s" s="2">
+      <c r="AF3" t="s" s="5">
         <v>32</v>
       </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -195,49 +195,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -348,14 +311,17 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -364,10 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -386,15 +349,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1507,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1517,235 +1471,235 @@
     <col min="33" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.6" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4"/>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s" s="5">
+      <c r="A2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1111</v>
+      </c>
+      <c r="V2" s="3">
+        <v>111</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="AD2" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="5">
-        <v>31</v>
+      <c r="Z2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1111</v>
-      </c>
-      <c r="V3" s="6">
-        <v>111</v>
-      </c>
-      <c r="W3" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AA3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AC3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AD3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AE3" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="AF3" t="s" s="5">
-        <v>32</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="7"/>
@@ -1782,140 +1736,140 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="9"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="9"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="10"/>
@@ -1951,40 +1905,6 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,100 +218,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -322,33 +235,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1461,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1667,244 +1553,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="6"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -109,7 +109,7 @@
     <t>登録通知書お知らせ</t>
   </si>
   <si>
-    <t>2020-10-23 01:16:20</t>
+    <t>2020-10-23</t>
   </si>
   <si>
     <t>株式会社</t>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -218,13 +218,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -235,6 +322,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1553,6 +1667,278 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="6"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>申込日</t>
   </si>
@@ -109,9 +109,6 @@
     <t>登録通知書お知らせ</t>
   </si>
   <si>
-    <t>2020-10-23</t>
-  </si>
-  <si>
     <t>株式会社</t>
   </si>
   <si>
@@ -133,7 +130,15 @@
     <t>店</t>
   </si>
   <si>
-    <t>aaa@a.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>aa@gmail.com</t>
+    </r>
   </si>
   <si>
     <t>9:00-17:00</t>
@@ -161,10 +166,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,6 +184,12 @@
     <font>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -311,7 +323,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -319,6 +331,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -370,6 +385,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1570,376 +1586,379 @@
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
+      <c r="J2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="M2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="P2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="Q2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="R2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s" s="2">
+      <c r="T2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="U2" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V2" s="4">
+        <v>111</v>
+      </c>
+      <c r="W2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="U2" s="3">
-        <v>1111</v>
-      </c>
-      <c r="V2" s="3">
-        <v>111</v>
-      </c>
-      <c r="W2" t="s" s="2">
+      <c r="X2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="X2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="4">
         <v>10</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>44127</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="7"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="10"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="10"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="10"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -230,100 +230,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -337,33 +250,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1683,278 +1569,6 @@
         <v>44127</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="7"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="10"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="10"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="10"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="10"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="10"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="13"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>申込日</t>
   </si>
@@ -34,9 +34,6 @@
     <t>電話番号</t>
   </si>
   <si>
-    <t>FAX</t>
-  </si>
-  <si>
     <t>店舗名</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>メールアドレス</t>
   </si>
   <si>
+    <t>通知用メールアドレス</t>
+  </si>
+  <si>
     <t>店舗郵便番号</t>
   </si>
   <si>
@@ -88,25 +88,13 @@
     <t>インセンティブ</t>
   </si>
   <si>
-    <t>必要書類</t>
-  </si>
-  <si>
     <t>履歴事項証明</t>
   </si>
   <si>
-    <t>印鑑証明</t>
-  </si>
-  <si>
     <t>振り込み通帳画像</t>
   </si>
   <si>
-    <t>住民票</t>
-  </si>
-  <si>
     <t>開発業、確定申告書、営業許可書</t>
-  </si>
-  <si>
-    <t>登録通知書お知らせ</t>
   </si>
   <si>
     <t>株式会社</t>
@@ -138,6 +126,17 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>aa@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>aaa@gmail.com</t>
     </r>
   </si>
   <si>
@@ -1363,14 +1362,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="32" width="8.85156" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="28" width="8.85156" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1458,79 +1457,67 @@
       <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="3">
         <v>44127</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="I2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
+      <c r="P2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="J2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="Q2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="R2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="T2" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="U2" s="4">
         <v>1111</v>
@@ -1539,39 +1526,28 @@
         <v>111</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="4">
         <v>10</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>44127</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId2" location="" tooltip="" display="aaa@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -1,129 +1,436 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB22944-AD7A-459C-B053-57869C364F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27675" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
-  <si>
-    <t>申込日</t>
-  </si>
-  <si>
-    <t>法人名</t>
-  </si>
-  <si>
-    <t>代表者</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>携帯電話番号</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>店舗名</t>
-  </si>
-  <si>
-    <t>責任者</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>通知用メールアドレス</t>
-  </si>
-  <si>
-    <t>店舗郵便番号</t>
-  </si>
-  <si>
-    <t>店舗住所</t>
-  </si>
-  <si>
-    <t>店舗電話番号</t>
-  </si>
-  <si>
-    <t>営業時間</t>
-  </si>
-  <si>
-    <t>ネイリストの有無</t>
-  </si>
-  <si>
-    <t>ホームページ</t>
-  </si>
-  <si>
-    <t>口座名義</t>
-  </si>
-  <si>
-    <t>銀行名</t>
-  </si>
-  <si>
-    <t>支店名</t>
-  </si>
-  <si>
-    <t>金融コード</t>
-  </si>
-  <si>
-    <t>支店コード</t>
-  </si>
-  <si>
-    <t>口座タイプ</t>
-  </si>
-  <si>
-    <t>口座番号</t>
-  </si>
-  <si>
-    <t>インセンティブ</t>
-  </si>
-  <si>
-    <t>履歴事項証明</t>
-  </si>
-  <si>
-    <t>振り込み通帳画像</t>
-  </si>
-  <si>
-    <t>開発業、確定申告書、営業許可書</t>
-  </si>
-  <si>
-    <t>株式会社</t>
-  </si>
-  <si>
-    <t>山田太郎</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>000-0000</t>
   </si>
   <si>
-    <t>東京都千代田区千代田１−１</t>
-  </si>
-  <si>
     <t>000-0000-0000</t>
   </si>
   <si>
     <t>00-0000-0000</t>
   </si>
   <si>
-    <t>店</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>https://aaa.com</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>申込日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>法人名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>代表者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>郵便番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>住所</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>携帯電話番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電話番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店舗名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>責任者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メールアドレス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通知用メールアドレス</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店舗郵便番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店舗住所</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店舗電話番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>営業時間</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ネイリストの有無</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホームページ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>口座名義</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>銀行名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>支店名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金融コード</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>支店コード</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>口座タイプ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>口座番号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インセンティブ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>履歴事項証明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>振り込み通帳画像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>開発業、確定申告書、営業許可書</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>株式会社</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>山田太郎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>東京都千代田区千代田１−１</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>aa@gmail.com</t>
     </r>
@@ -131,43 +438,70 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="11"/>
+        <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>aaa@gmail.com</t>
     </r>
   </si>
   <si>
-    <t>9:00-17:00</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>https://aaa.com</t>
-  </si>
-  <si>
-    <t>〇〇銀行</t>
-  </si>
-  <si>
-    <t>〇〇支店</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>0000000</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>○</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〇〇銀行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〇〇支店</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>普通</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -176,20 +510,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,8 +539,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,53 +569,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -403,7 +789,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -412,7 +798,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -421,7 +807,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,7 +881,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -503,7 +889,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -522,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -578,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,9 +1159,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -790,7 +1182,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -798,7 +1190,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -817,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,9 +1456,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1080,7 +1478,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1099,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,174 +1748,185 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541AA9-575F-4E54-977E-0F8021E2B1F6}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="28" width="8.85156" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="3">
         <v>44127</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s" s="2">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s" s="2">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s" s="2">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="U2" s="4">
         <v>1111</v>
@@ -1525,34 +1934,31 @@
       <c r="V2" s="4">
         <v>111</v>
       </c>
-      <c r="W2" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X2" t="s" s="2">
+      <c r="W2" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="Y2" s="4">
         <v>10</v>
       </c>
-      <c r="Z2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>38</v>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>
-    <hyperlink ref="K2" r:id="rId2" location="" tooltip="" display="aaa@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{CD6D37E0-FED0-46AB-8F50-E6206272E428}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{792AB32D-842B-49BC-875F-E82927471293}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB22944-AD7A-459C-B053-57869C364F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA074B-B1E0-4C65-A605-CDB3D7ACB97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27675" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="44">
   <si>
     <t>000-0000</t>
   </si>
@@ -1767,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541AA9-575F-4E54-977E-0F8021E2B1F6}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1953,11 +1953,805 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V3" s="4">
+        <v>111</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V4" s="4">
+        <v>111</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V5" s="4">
+        <v>111</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V6" s="4">
+        <v>111</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V7" s="4">
+        <v>111</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A8" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V8" s="4">
+        <v>111</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V9" s="4">
+        <v>111</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A10" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1111</v>
+      </c>
+      <c r="V10" s="4">
+        <v>111</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{CD6D37E0-FED0-46AB-8F50-E6206272E428}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{792AB32D-842B-49BC-875F-E82927471293}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{36FC16E2-E030-4FC1-BDD3-93DCE52F69C4}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{786BBE0A-30B0-4ACA-B45A-8D52523F6C8B}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{5060DC33-8A41-4D60-ABE3-473242F7E132}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{DCEE8D39-1834-4663-B25F-84E730DDCC49}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{99EAAA94-BC7A-4988-B67B-0065D0E53837}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{6B1DC7A2-B4D7-42DF-AB6C-30C866C688F4}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{A56E75CD-A098-4A12-92E9-C4F1ADDADA0C}"/>
+    <hyperlink ref="J7" r:id="rId10" xr:uid="{695C7BA8-94D3-4BB9-94BF-D724ABC36C5B}"/>
+    <hyperlink ref="J8" r:id="rId11" xr:uid="{C0B552B8-51FA-488B-9037-74ACBF443BCF}"/>
+    <hyperlink ref="J9" r:id="rId12" xr:uid="{6383DF10-6B40-4DE2-B910-B7CCB6EF3A49}"/>
+    <hyperlink ref="J10" r:id="rId13" xr:uid="{CB8A6DD2-F8F4-4D3B-9CE1-4E339C3B0814}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{56D679F8-3075-4BB1-A7A6-26E658E884D1}"/>
+    <hyperlink ref="K7" r:id="rId15" xr:uid="{3C0337B7-A705-4CB0-B610-524EBCCB6C17}"/>
+    <hyperlink ref="K8" r:id="rId16" xr:uid="{D76A14BE-5EBF-4F5E-AF12-D099D692EFCE}"/>
+    <hyperlink ref="K9" r:id="rId17" xr:uid="{4A1965A6-715D-43B6-95A3-D02B552A8FB9}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{A1B4F5BD-190A-4EC8-A4D6-6558B1559749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA074B-B1E0-4C65-A605-CDB3D7ACB97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630E6D0-38CD-4388-818A-EDBC515C2037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="27675" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>000-0000</t>
   </si>
@@ -1767,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541AA9-575F-4E54-977E-0F8021E2B1F6}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1953,805 +1953,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V3" s="4">
-        <v>111</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V4" s="4">
-        <v>111</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V5" s="4">
-        <v>111</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V6" s="4">
-        <v>111</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V7" s="4">
-        <v>111</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V8" s="4">
-        <v>111</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V9" s="4">
-        <v>111</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1111</v>
-      </c>
-      <c r="V10" s="4">
-        <v>111</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{CD6D37E0-FED0-46AB-8F50-E6206272E428}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{792AB32D-842B-49BC-875F-E82927471293}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{36FC16E2-E030-4FC1-BDD3-93DCE52F69C4}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{786BBE0A-30B0-4ACA-B45A-8D52523F6C8B}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{5060DC33-8A41-4D60-ABE3-473242F7E132}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{DCEE8D39-1834-4663-B25F-84E730DDCC49}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{99EAAA94-BC7A-4988-B67B-0065D0E53837}"/>
-    <hyperlink ref="K5" r:id="rId8" xr:uid="{6B1DC7A2-B4D7-42DF-AB6C-30C866C688F4}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{A56E75CD-A098-4A12-92E9-C4F1ADDADA0C}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{695C7BA8-94D3-4BB9-94BF-D724ABC36C5B}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{C0B552B8-51FA-488B-9037-74ACBF443BCF}"/>
-    <hyperlink ref="J9" r:id="rId12" xr:uid="{6383DF10-6B40-4DE2-B910-B7CCB6EF3A49}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{CB8A6DD2-F8F4-4D3B-9CE1-4E339C3B0814}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{56D679F8-3075-4BB1-A7A6-26E658E884D1}"/>
-    <hyperlink ref="K7" r:id="rId15" xr:uid="{3C0337B7-A705-4CB0-B610-524EBCCB6C17}"/>
-    <hyperlink ref="K8" r:id="rId16" xr:uid="{D76A14BE-5EBF-4F5E-AF12-D099D692EFCE}"/>
-    <hyperlink ref="K9" r:id="rId17" xr:uid="{4A1965A6-715D-43B6-95A3-D02B552A8FB9}"/>
-    <hyperlink ref="K10" r:id="rId18" xr:uid="{A1B4F5BD-190A-4EC8-A4D6-6558B1559749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/app/public/sample.xlsx
+++ b/storage/app/public/sample.xlsx
@@ -1,436 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630E6D0-38CD-4388-818A-EDBC515C2037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27675" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+  <si>
+    <t>アカウントID</t>
+  </si>
+  <si>
+    <t>申込日</t>
+  </si>
+  <si>
+    <t>法人名</t>
+  </si>
+  <si>
+    <t>代表者</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>店舗名</t>
+  </si>
+  <si>
+    <t>責任者</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>通知用メールアドレス</t>
+  </si>
+  <si>
+    <t>店舗郵便番号</t>
+  </si>
+  <si>
+    <t>店舗住所</t>
+  </si>
+  <si>
+    <t>店舗電話番号</t>
+  </si>
+  <si>
+    <t>営業時間</t>
+  </si>
+  <si>
+    <t>ネイリストの有無</t>
+  </si>
+  <si>
+    <t>ホームページ</t>
+  </si>
+  <si>
+    <t>口座名義</t>
+  </si>
+  <si>
+    <t>銀行名</t>
+  </si>
+  <si>
+    <t>支店名</t>
+  </si>
+  <si>
+    <t>金融コード</t>
+  </si>
+  <si>
+    <t>支店コード</t>
+  </si>
+  <si>
+    <t>口座タイプ</t>
+  </si>
+  <si>
+    <t>口座番号</t>
+  </si>
+  <si>
+    <t>インセンティブ</t>
+  </si>
+  <si>
+    <t>履歴事項証明</t>
+  </si>
+  <si>
+    <t>振り込み通帳画像</t>
+  </si>
+  <si>
+    <t>開発業、確定申告書、営業許可書</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>株式会社</t>
+  </si>
+  <si>
+    <t>山田太郎</t>
+  </si>
   <si>
     <t>000-0000</t>
   </si>
   <si>
+    <t>東京都千代田区千代田１−１</t>
+  </si>
+  <si>
     <t>000-0000-0000</t>
   </si>
   <si>
     <t>00-0000-0000</t>
   </si>
   <si>
-    <t>9:00-17:00</t>
-  </si>
-  <si>
-    <t>https://aaa.com</t>
-  </si>
-  <si>
-    <t>0000000</t>
+    <t>店</t>
   </si>
   <si>
     <r>
       <rPr>
+        <u val="single"/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>申込日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>法人名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>代表者</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>郵便番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>住所</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>携帯電話番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>電話番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>店舗名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>責任者</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メールアドレス</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通知用メールアドレス</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>店舗郵便番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>店舗住所</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>店舗電話番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>営業時間</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ネイリストの有無</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ホームページ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>口座名義</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>銀行名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>支店名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>金融コード</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>支店コード</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>口座タイプ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>口座番号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インセンティブ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>履歴事項証明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>振り込み通帳画像</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>開発業、確定申告書、営業許可書</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>株式会社</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山田太郎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>東京都千代田区千代田１−１</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>店</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>aa@gmail.com</t>
     </r>
@@ -438,70 +137,43 @@
   <si>
     <r>
       <rPr>
+        <u val="single"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>aaa@gmail.com</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>○</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〇〇銀行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〇〇支店</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>普通</t>
-    </r>
+    <t>9:00-17:00</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>https://aaa.com</t>
+  </si>
+  <si>
+    <t>〇〇銀行</t>
+  </si>
+  <si>
+    <t>〇〇支店</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>0000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -510,24 +182,20 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -539,8 +207,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,101 +237,53 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -789,7 +409,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -798,7 +418,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -807,7 +427,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -881,7 +501,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -889,7 +509,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -908,7 +528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +636,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +714,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +740,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +766,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,15 +779,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1182,7 +796,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1190,7 +804,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1209,7 +823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,15 +1070,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1478,7 +1086,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1497,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,217 +1356,215 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6541AA9-575F-4E54-977E-0F8021E2B1F6}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
-    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="1" max="29" width="8.85156" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>44127</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="D2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="E2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="F2" t="s" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4">
         <v>1111</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>111</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="4">
+      <c r="X2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="4">
         <v>10</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{CD6D37E0-FED0-46AB-8F50-E6206272E428}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{792AB32D-842B-49BC-875F-E82927471293}"/>
+    <hyperlink ref="K2" r:id="rId1" location="" tooltip="" display="aa@gmail.com"/>
+    <hyperlink ref="L2" r:id="rId2" location="" tooltip="" display="aaa@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>